--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N2">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q2">
-        <v>12.89021037082975</v>
+        <v>30.54671948813467</v>
       </c>
       <c r="R2">
-        <v>12.89021037082975</v>
+        <v>274.920475393212</v>
       </c>
       <c r="S2">
-        <v>0.00328869044867266</v>
+        <v>0.006981178254290795</v>
       </c>
       <c r="T2">
-        <v>0.00328869044867266</v>
+        <v>0.006981178254290797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q3">
-        <v>150.2102979450822</v>
+        <v>173.4707831700895</v>
       </c>
       <c r="R3">
-        <v>150.2102979450822</v>
+        <v>1561.237048530806</v>
       </c>
       <c r="S3">
-        <v>0.03832328239282782</v>
+        <v>0.0396451887310592</v>
       </c>
       <c r="T3">
-        <v>0.03832328239282782</v>
+        <v>0.0396451887310592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N4">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q4">
-        <v>11.85413037965417</v>
+        <v>15.63755168820333</v>
       </c>
       <c r="R4">
-        <v>11.85413037965417</v>
+        <v>140.73796519383</v>
       </c>
       <c r="S4">
-        <v>0.003024354470204015</v>
+        <v>0.00357382192344543</v>
       </c>
       <c r="T4">
-        <v>0.003024354470204015</v>
+        <v>0.00357382192344543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N5">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q5">
-        <v>257.8184278939883</v>
+        <v>538.3164453099914</v>
       </c>
       <c r="R5">
-        <v>257.8184278939883</v>
+        <v>4844.848007789923</v>
       </c>
       <c r="S5">
-        <v>0.06577743705607043</v>
+        <v>0.1230273864067463</v>
       </c>
       <c r="T5">
-        <v>0.06577743705607043</v>
+        <v>0.1230273864067464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q6">
-        <v>3004.371670871015</v>
+        <v>3057.02795344474</v>
       </c>
       <c r="R6">
-        <v>3004.371670871015</v>
+        <v>27513.25158100266</v>
       </c>
       <c r="S6">
-        <v>0.7665079260937012</v>
+        <v>0.6986562691171242</v>
       </c>
       <c r="T6">
-        <v>0.7665079260937012</v>
+        <v>0.6986562691171243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N7">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q7">
-        <v>237.0956850672465</v>
+        <v>275.5762772305117</v>
       </c>
       <c r="R7">
-        <v>237.0956850672465</v>
+        <v>2480.186495074605</v>
       </c>
       <c r="S7">
-        <v>0.0604904258713012</v>
+        <v>0.06298048190567059</v>
       </c>
       <c r="T7">
-        <v>0.0604904258713012</v>
+        <v>0.06298048190567059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N8">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q8">
-        <v>18.07431380950483</v>
+        <v>39.63493355828599</v>
       </c>
       <c r="R8">
-        <v>18.07431380950483</v>
+        <v>356.714402024574</v>
       </c>
       <c r="S8">
-        <v>0.004611315213764402</v>
+        <v>0.009058207915741832</v>
       </c>
       <c r="T8">
-        <v>0.004611315213764402</v>
+        <v>0.009058207915741833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q9">
-        <v>210.6209273839703</v>
+        <v>225.0815498509096</v>
       </c>
       <c r="R9">
-        <v>210.6209273839703</v>
+        <v>2025.733948658187</v>
       </c>
       <c r="S9">
-        <v>0.05373589819338642</v>
+        <v>0.05144036569529494</v>
       </c>
       <c r="T9">
-        <v>0.05373589819338642</v>
+        <v>0.05144036569529495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N10">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q10">
-        <v>16.62154970763774</v>
+        <v>20.290012563115</v>
       </c>
       <c r="R10">
-        <v>16.62154970763774</v>
+        <v>182.610113068035</v>
       </c>
       <c r="S10">
-        <v>0.004240670260071744</v>
+        <v>0.00463710005062659</v>
       </c>
       <c r="T10">
-        <v>0.004240670260071744</v>
+        <v>0.00463710005062659</v>
       </c>
     </row>
   </sheetData>
